--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,70 +40,82 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>sorry</t>
   </si>
   <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>crazy</t>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
@@ -112,151 +124,127 @@
     <t>disturbing</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
     <t>black</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>whole</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
     <t>’</t>
   </si>
   <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>watch</t>
   </si>
   <si>
     <t>positive</t>
@@ -617,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +616,7 @@
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,16 +695,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -757,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -804,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -836,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.8666666666666667</v>
@@ -886,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.7543859649122807</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,49 +1024,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <v>0.6896551724137931</v>
+      </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>9</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10">
-        <v>0.7</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10">
-        <v>7</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,16 +1095,16 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.64</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L11">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1186,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,28 +1195,28 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.5833333333333334</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>7</v>
-      </c>
-      <c r="M13">
-        <v>7</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.5555555555555556</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>0.5</v>
@@ -1336,49 +1324,49 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7368421052631579</v>
+        <v>0.7</v>
       </c>
       <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="L16">
+        <v>13</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>14</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16">
-        <v>9</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1386,13 +1374,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7333333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.4074074074074074</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1424,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.3939393939393939</v>
+        <v>0.4</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.3333333333333333</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1536,13 +1524,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6875</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1554,19 +1542,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.3333333333333333</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1578,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1574,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.3157894736842105</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1628,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,13 +1624,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.2204007285974499</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L22">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="M22">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1678,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>856</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1686,13 +1674,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1704,19 +1692,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.2173913043478261</v>
+        <v>0.2240437158469945</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>852</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1724,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5714285714285714</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.1864406779661017</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1786,13 +1774,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5652173913043478</v>
+        <v>0.55</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.1475409836065574</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,13 +1824,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5625</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,19 +1842,19 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26">
+        <v>0.1707317073170732</v>
+      </c>
+      <c r="L26">
         <v>7</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26">
-        <v>0.1368421052631579</v>
-      </c>
-      <c r="L26">
-        <v>13</v>
-      </c>
       <c r="M26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1878,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,13 +1874,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5507246376811594</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1904,31 +1892,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>13</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27">
+        <v>0.1267605633802817</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>62</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27">
-        <v>0.12</v>
-      </c>
-      <c r="L27">
-        <v>6</v>
-      </c>
-      <c r="M27">
-        <v>6</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,13 +1924,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5416666666666666</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1954,19 +1942,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.1126760563380282</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="L28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +1974,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5319148936170213</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,19 +1992,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.1111111111111111</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2039,10 +2027,10 @@
         <v>0.5</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,19 +2042,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.1111111111111111</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2078,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,13 +2074,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2104,19 +2092,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.09230769230769231</v>
+        <v>0.03084415584415584</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2128,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>59</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2136,13 +2124,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3928571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2154,19 +2142,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.0821917808219178</v>
+        <v>0.02710843373493976</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2178,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>67</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2186,13 +2174,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.358974358974359</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2204,19 +2192,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.03174603174603174</v>
+        <v>0.02346041055718475</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2228,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2236,13 +2224,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2254,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.03162650602409638</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2278,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>643</v>
+        <v>528</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2286,13 +2274,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2304,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.03148148148148148</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2328,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>523</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2336,87 +2324,63 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1153846153846154</v>
+        <v>0.0436241610738255</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.01792573623559539</v>
+      </c>
+      <c r="L36">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>14</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K36">
-        <v>0.02639296187683285</v>
-      </c>
-      <c r="L36">
-        <v>9</v>
-      </c>
-      <c r="M36">
-        <v>9</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.04026845637583892</v>
-      </c>
-      <c r="C37">
-        <v>12</v>
-      </c>
-      <c r="D37">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>0.08</v>
-      </c>
-      <c r="F37">
-        <v>0.92</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>286</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K37">
-        <v>0.02120141342756184</v>
+        <v>0.01209677419354839</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2428,85 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38">
-        <v>0.0204865556978233</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <v>16</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.01785714285714286</v>
-      </c>
-      <c r="L39">
-        <v>31</v>
-      </c>
-      <c r="M39">
-        <v>31</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.01623376623376623</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>606</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
